--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,187 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:N3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -457,7 +639,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +649,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +659,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="5">
@@ -577,7 +759,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +859,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="25">
@@ -707,7 +889,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="28">
@@ -757,7 +939,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>308095.2380952381</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +949,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="34">
@@ -777,17 +959,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>838095.2380952381</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1384285.714285714</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,14 +416,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>621</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Dung</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -614,7 +778,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -625,6 +789,401 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>172</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-191</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>520000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>400000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>49000000</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>49000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>44000000</v>
+      </c>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>670000</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>500000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -669,7 +1228,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="6">
@@ -725,17 +1284,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1170000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -745,7 +1304,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -755,27 +1314,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>238095.2380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -785,7 +1344,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -795,7 +1354,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -805,7 +1364,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -815,7 +1374,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -825,7 +1384,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -835,7 +1394,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -845,7 +1404,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -855,17 +1414,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>238095.2380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -875,27 +1434,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>238095.2380952381</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -905,17 +1464,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -925,7 +1484,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -935,41 +1494,71 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>308095.2380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>238095.2380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>838095.2380952381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>2378095.238095238</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>238095.2380952381</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>838095.2380952381</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>1384285.714285714</v>
+      <c r="B38" t="n">
+        <v>3454285.714285714</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,34 +555,148 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>625</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v/>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>626</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ trinh</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>nhấn đồng tiền</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
         <v>900000</v>
       </c>
     </row>
@@ -597,7 +711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,35 +850,149 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>625</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v/>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6000000</v>
       </c>
       <c r="K3" t="n">
-        <v>8000000</v>
+        <v>6000000</v>
       </c>
       <c r="L3" t="n">
         <v>6000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N3" t="n">
         <v>600000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>627</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tạ duy hoàng </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>14000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K5" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1800000</v>
       </c>
     </row>
   </sheetData>
@@ -778,7 +1006,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,59 +1334,156 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>181</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5000000</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="n">
-        <v>49000000</v>
-      </c>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>49000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>44000000</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>59000000</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N5" t="n">
+        <v>67000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55000000</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>670000</v>
       </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>500000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>650000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1198,7 +1523,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1208,7 +1533,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="4">
@@ -1218,7 +1543,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
     </row>
     <row r="5">
@@ -1288,7 +1613,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1170000</v>
+        <v>1320000</v>
       </c>
     </row>
     <row r="12">
@@ -1328,7 +1653,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
     </row>
     <row r="16">
@@ -1438,7 +1763,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
     </row>
     <row r="27">
@@ -1468,7 +1793,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>600000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="30">
@@ -1528,7 +1853,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2378095.238095238</v>
+        <v>3452380.952380952</v>
       </c>
     </row>
     <row r="36">
@@ -1538,7 +1863,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>238095.2380952381</v>
+        <v>952380.9523809524</v>
       </c>
     </row>
     <row r="37">
@@ -1548,7 +1873,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>838095.2380952381</v>
+        <v>2752380.952380952</v>
       </c>
     </row>
     <row r="38">
@@ -1558,7 +1883,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3454285.714285714</v>
+        <v>7157142.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,34 +669,90 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>644</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-11-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Huyền Trang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cọc Dịch Vụ Làm Đẹp</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="n">
         <v>6000000</v>
       </c>
-      <c r="K5" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
+      <c r="K6" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>900000</v>
       </c>
     </row>
@@ -1006,7 +1062,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1431,59 +1487,156 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6500000</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>59000000</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7500000</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>79000000</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="n">
         <v>8000000</v>
       </c>
-      <c r="N5" t="n">
-        <v>67000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>55000000</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>670000</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>650000</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="N6" t="n">
+        <v>87000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>71000000</v>
+      </c>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>770000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>710000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1523,7 +1676,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1533,7 +1686,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280000</v>
+        <v>385000</v>
       </c>
     </row>
     <row r="4">
@@ -1543,7 +1696,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
     </row>
     <row r="5">
@@ -1613,7 +1766,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320000</v>
+        <v>1480000</v>
       </c>
     </row>
     <row r="12">
@@ -1653,7 +1806,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
     </row>
     <row r="16">
@@ -1763,7 +1916,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
     </row>
     <row r="27">
@@ -1853,7 +2006,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3452380.952380952</v>
+        <v>4074523.80952381</v>
       </c>
     </row>
     <row r="36">
@@ -1863,7 +2016,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>952380.9523809524</v>
+        <v>1309523.809523809</v>
       </c>
     </row>
     <row r="37">
@@ -1873,7 +2026,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2752380.952380952</v>
+        <v>3109523.80952381</v>
       </c>
     </row>
     <row r="38">
@@ -1883,7 +2036,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7157142.857142857</v>
+        <v>8493571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -725,35 +726,539 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>646</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>652</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>653</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>654</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>ngọc khanh</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>659</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nguyễn Như Ngọc</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Căng chỉ mặt</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>660</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>662</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>663</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cắt môi</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I13" t="n">
+        <v/>
+      </c>
+      <c r="J13" t="n">
+        <v/>
+      </c>
+      <c r="K13" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>664</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>122500000</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>6000000</v>
       </c>
-      <c r="K6" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>900000</v>
+      <c r="K15" t="n">
+        <v>128500000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>88000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8250000</v>
       </c>
     </row>
   </sheetData>
@@ -767,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1020,35 +1525,259 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>646</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>649</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>H-Sa</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3800000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>651</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sữ Thị Thanh Tuyền</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4900000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>664</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>14500000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>14000000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>82400000</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
         <v>6000000</v>
       </c>
-      <c r="K5" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1800000</v>
+      <c r="K9" t="n">
+        <v>88400000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>71900000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>7190000</v>
       </c>
     </row>
   </sheetData>
@@ -1062,7 +1791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1078,27 +1807,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -1108,90 +1837,35 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>Chiết khấu bác sĩ 2</t>
         </is>
@@ -1200,444 +1874,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1000000</v>
+        <v>660</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-190</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
       </c>
       <c r="K2" t="n">
-        <v>40000000</v>
+        <v>35000000</v>
       </c>
       <c r="L2" t="n">
-        <v/>
+        <v>20000000</v>
       </c>
       <c r="M2" t="n">
-        <v/>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>40000000</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S2" t="n">
-        <v>150000</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>100000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>08-03-2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-191</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9000000</v>
+        <v>35000000</v>
       </c>
       <c r="L3" t="n">
-        <v/>
+        <v>20000000</v>
       </c>
       <c r="M3" t="n">
-        <v/>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>9000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="S3" t="n">
-        <v>520000</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>400000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>181</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1500000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08-09-2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-538</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Ngô Xuân Nhi</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Lâm Hoàng Phú</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Đỗ Thị Huyền Trân</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>150000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>184</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>08-10-2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-315</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Mai Bảo Thi</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>100000</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W5" t="n">
-        <v>60000</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7500000</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="n">
-        <v>79000000</v>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N6" t="n">
-        <v>87000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>71000000</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>770000</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>710000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
@@ -1646,6 +1967,880 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>171</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-190</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>40000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S2" t="n">
+        <v>150000</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>172</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-191</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Quỳnh Như</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v/>
+      </c>
+      <c r="M3" t="n">
+        <v/>
+      </c>
+      <c r="N3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S3" t="n">
+        <v>520000</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>400000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>181</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>150000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>184</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W5" t="n">
+        <v>60000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>186</v>
+      </c>
+      <c r="C6" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08-15-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S6" t="n">
+        <v>65000</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>187</v>
+      </c>
+      <c r="C7" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-414</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">em Tuyền </t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="R7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>50000</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>189</v>
+      </c>
+      <c r="C8" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-465</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Phạm Trần Thuý Vi</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13500000</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>113000000</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N9" t="n">
+        <v>121000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>101500000</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1385000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>760000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1676,7 +2871,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -1686,7 +2881,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>385000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="4">
@@ -1696,7 +2891,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="5">
@@ -1726,7 +2921,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="8">
@@ -1766,7 +2961,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1480000</v>
+        <v>2095000</v>
       </c>
     </row>
     <row r="12">
@@ -1776,7 +2971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-500000</v>
       </c>
     </row>
     <row r="13">
@@ -1806,7 +3001,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="16">
@@ -1816,7 +3011,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="17">
@@ -1836,7 +3031,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="19">
@@ -1846,7 +3041,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="20">
@@ -1886,7 +3081,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
@@ -1916,7 +3111,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1309523.809523809</v>
+        <v>2619047.619047619</v>
       </c>
     </row>
     <row r="27">
@@ -1926,7 +3121,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>4350000</v>
       </c>
     </row>
     <row r="28">
@@ -1946,7 +3141,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1800000</v>
+        <v>2900000</v>
       </c>
     </row>
     <row r="30">
@@ -1986,7 +3181,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="34">
@@ -1996,7 +3191,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
@@ -2006,7 +3201,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4074523.80952381</v>
+        <v>6374047.619047619</v>
       </c>
     </row>
     <row r="36">
@@ -2016,7 +3211,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1309523.809523809</v>
+        <v>10619047.61904762</v>
       </c>
     </row>
     <row r="37">
@@ -2026,7 +3221,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3109523.80952381</v>
+        <v>9919047.619047619</v>
       </c>
     </row>
     <row r="38">
@@ -2036,7 +3231,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8493571.428571429</v>
+        <v>26912142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="I7" t="n">
         <v/>
@@ -823,16 +823,16 @@
         <v/>
       </c>
       <c r="K7" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="L7" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="M7" t="n">
         <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="8">
@@ -1050,13 +1050,13 @@
         <v>35000000</v>
       </c>
       <c r="L11" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="M11" t="n">
         <v>0.15</v>
       </c>
       <c r="N11" t="n">
-        <v>3000000</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="12">
@@ -1162,13 +1162,13 @@
         <v>5000000</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="M13" t="n">
         <v>0.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="14">
@@ -1242,23 +1242,23 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>122500000</v>
+        <v>118500000</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>6000000</v>
       </c>
       <c r="K15" t="n">
-        <v>128500000</v>
+        <v>124500000</v>
       </c>
       <c r="L15" t="n">
-        <v>88000000</v>
+        <v>104000000</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>8250000</v>
+        <v>10600000</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1749,35 +1749,147 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>677</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>679</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lý thị thuý vi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>82400000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>99400000</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
         <v>6000000</v>
       </c>
-      <c r="K9" t="n">
-        <v>88400000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>71900000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7190000</v>
+      <c r="K11" t="n">
+        <v>105400000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>88900000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>8890000</v>
       </c>
     </row>
   </sheetData>
@@ -1918,13 +2030,13 @@
         <v>35000000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="M2" t="n">
         <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="3">
@@ -1952,13 +2064,13 @@
         <v>35000000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
   </sheetData>
@@ -1972,7 +2084,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2359,7 +2471,7 @@
         <v>18000000</v>
       </c>
       <c r="O4" t="n">
-        <v>11000000</v>
+        <v>12000000</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -2454,7 +2566,7 @@
         <v>20000000</v>
       </c>
       <c r="O5" t="n">
-        <v>16000000</v>
+        <v>18000000</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -2779,59 +2891,253 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>194</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>200000</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="W9" t="n">
+        <v>120000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>197</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-538</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Ngô Xuân Nhi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Lâm Hoàng Phú</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>12000000</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v/>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13500000</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>113000000</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N9" t="n">
-        <v>121000000</v>
-      </c>
-      <c r="O9" t="n">
-        <v>101500000</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1385000</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>760000</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>143000000</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="N11" t="n">
+        <v>159000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>134500000</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1585000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>980000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2961,7 +3267,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2095000</v>
+        <v>2515000</v>
       </c>
     </row>
     <row r="12">
@@ -3011,7 +3317,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3000000</v>
+        <v>5750000</v>
       </c>
     </row>
     <row r="17">
@@ -3041,7 +3347,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="20">
@@ -3121,7 +3427,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4350000</v>
+        <v>3950000</v>
       </c>
     </row>
     <row r="28">
@@ -3141,7 +3447,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2900000</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="30">
@@ -3201,7 +3507,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6374047.619047619</v>
+        <v>6794047.619047619</v>
       </c>
     </row>
     <row r="36">
@@ -3211,7 +3517,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10619047.61904762</v>
+        <v>14269047.61904762</v>
       </c>
     </row>
     <row r="37">
@@ -3221,7 +3527,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9919047.619047619</v>
+        <v>11219047.61904762</v>
       </c>
     </row>
     <row r="38">
@@ -3231,7 +3537,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>26912142.85714286</v>
+        <v>32282142.85714286</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1230,35 +1230,147 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>684</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I15" t="n">
+        <v/>
+      </c>
+      <c r="J15" t="n">
+        <v/>
+      </c>
+      <c r="K15" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27000000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4050000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>687</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Trương thị kiều</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="I16" t="n">
+        <v/>
+      </c>
+      <c r="J16" t="n">
+        <v/>
+      </c>
+      <c r="K16" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>13</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>118500000</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>159500000</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="n">
         <v>6000000</v>
       </c>
-      <c r="K15" t="n">
-        <v>124500000</v>
-      </c>
-      <c r="L15" t="n">
-        <v>104000000</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>10600000</v>
+      <c r="K17" t="n">
+        <v>165500000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>131000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14650000</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1861,35 +1973,91 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>683</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Nguyễn Đặng Thảo Nhi</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="I11" t="n">
+        <v/>
+      </c>
+      <c r="J11" t="n">
+        <v/>
+      </c>
+      <c r="K11" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>99400000</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>102200000</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
         <v>6000000</v>
       </c>
-      <c r="K11" t="n">
-        <v>105400000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>88900000</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>8890000</v>
+      <c r="K12" t="n">
+        <v>108200000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>91700000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>9170000</v>
       </c>
     </row>
   </sheetData>
@@ -1903,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,35 +2210,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>684</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>35000000</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v/>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="K3" t="n">
         <v>35000000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000000</v>
+        <v>27000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2100000</v>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>62000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3720000</v>
       </c>
     </row>
   </sheetData>
@@ -3177,7 +3401,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -3187,7 +3411,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>770000</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="4">
@@ -3197,7 +3421,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="5">
@@ -3207,7 +3431,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>900000</v>
+        <v>4950000</v>
       </c>
     </row>
     <row r="6">
@@ -3227,7 +3451,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>490000</v>
+        <v>770000</v>
       </c>
     </row>
     <row r="8">
@@ -3237,7 +3461,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="9">
@@ -3307,7 +3531,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="16">
@@ -3417,7 +3641,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2619047.619047619</v>
+        <v>3095238.095238095</v>
       </c>
     </row>
     <row r="27">
@@ -3507,7 +3731,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6794047.619047619</v>
+        <v>13360238.0952381</v>
       </c>
     </row>
     <row r="36">
@@ -3517,7 +3741,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14269047.61904762</v>
+        <v>14745238.0952381</v>
       </c>
     </row>
     <row r="37">
@@ -3527,7 +3751,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11219047.61904762</v>
+        <v>11695238.0952381</v>
       </c>
     </row>
     <row r="38">
@@ -3537,7 +3761,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32282142.85714286</v>
+        <v>39800714.28571428</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1342,35 +1342,315 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>690</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-26-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Đặng Thị Hồng Hạnh</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I17" t="n">
+        <v/>
+      </c>
+      <c r="J17" t="n">
+        <v/>
+      </c>
+      <c r="K17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L17" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>691</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Nguyễn Yến Nhi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="I18" t="n">
+        <v/>
+      </c>
+      <c r="J18" t="n">
+        <v/>
+      </c>
+      <c r="K18" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="L18" t="n">
+        <v>19500000</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="N18" t="n">
+        <v>3315000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>692</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="I19" t="n">
+        <v/>
+      </c>
+      <c r="J19" t="n">
+        <v/>
+      </c>
+      <c r="K19" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="L19" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>693</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I20" t="n">
+        <v/>
+      </c>
+      <c r="J20" t="n">
+        <v/>
+      </c>
+      <c r="K20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>694</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Xét nghiệm máu</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>500000</v>
+      </c>
+      <c r="I21" t="n">
+        <v/>
+      </c>
+      <c r="J21" t="n">
+        <v/>
+      </c>
+      <c r="K21" t="n">
+        <v>500000</v>
+      </c>
+      <c r="L21" t="n">
+        <v>500000</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>15</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>159500000</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="n">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>207500000</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
         <v>6000000</v>
       </c>
-      <c r="K17" t="n">
-        <v>165500000</v>
-      </c>
-      <c r="L17" t="n">
-        <v>131000000</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>14650000</v>
+      <c r="K22" t="n">
+        <v>213500000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>179000000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>20765000</v>
       </c>
     </row>
   </sheetData>
@@ -1384,7 +1664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,35 +2309,149 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>693</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="I12" t="n">
+        <v/>
+      </c>
+      <c r="J12" t="n">
+        <v/>
+      </c>
+      <c r="K12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>695</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Chị Sa</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="K13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>102200000</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="K12" t="n">
-        <v>108200000</v>
-      </c>
-      <c r="L12" t="n">
-        <v>91700000</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9170000</v>
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>105200000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="K14" t="n">
+        <v>114200000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>97700000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9770000</v>
       </c>
     </row>
   </sheetData>
@@ -3431,7 +3825,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4950000</v>
+        <v>11065000</v>
       </c>
     </row>
     <row r="6">
@@ -3451,7 +3845,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770000</v>
+        <v>1370000</v>
       </c>
     </row>
     <row r="8">
@@ -3501,7 +3895,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-500000</v>
+        <v>-665000</v>
       </c>
     </row>
     <row r="13">
@@ -3731,7 +4125,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>13360238.0952381</v>
+        <v>19910238.0952381</v>
       </c>
     </row>
     <row r="36">
@@ -3761,7 +4155,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>39800714.28571428</v>
+        <v>46350714.28571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,7 +608,7 @@
         <v>0.13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="4">
@@ -661,10 +661,10 @@
         <v>7000000</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>910000</v>
       </c>
     </row>
     <row r="5">
@@ -1622,35 +1622,91 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>697</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Lê Ngọc Huệ</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="I22" t="n">
+        <v/>
+      </c>
+      <c r="J22" t="n">
+        <v/>
+      </c>
+      <c r="K22" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>20</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>207500000</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>212050000</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
         <v>6000000</v>
       </c>
-      <c r="K22" t="n">
-        <v>213500000</v>
-      </c>
-      <c r="L22" t="n">
-        <v>179000000</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>20765000</v>
+      <c r="K23" t="n">
+        <v>218050000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>183550000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>22670000</v>
       </c>
     </row>
   </sheetData>
@@ -1664,7 +1720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2423,35 +2479,91 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>697</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Lê Ngọc Huệ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="I14" t="n">
+        <v/>
+      </c>
+      <c r="J14" t="n">
+        <v/>
+      </c>
+      <c r="K14" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4550000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>12</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>105200000</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>109750000</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="n">
         <v>9000000</v>
       </c>
-      <c r="K14" t="n">
-        <v>114200000</v>
-      </c>
-      <c r="L14" t="n">
-        <v>97700000</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>9770000</v>
+      <c r="K15" t="n">
+        <v>118750000</v>
+      </c>
+      <c r="L15" t="n">
+        <v>102250000</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>10225000</v>
       </c>
     </row>
   </sheetData>
@@ -2702,7 +2814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3281,7 +3393,7 @@
         <v>9000000</v>
       </c>
       <c r="O6" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -3703,59 +3815,439 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>198</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S11" t="n">
+        <v>130000</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>100000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>199</v>
+      </c>
+      <c r="C12" t="n">
+        <v/>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-367</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Phan Yến Nhi</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L12" t="n">
+        <v/>
+      </c>
+      <c r="M12" t="n">
+        <v/>
+      </c>
+      <c r="N12" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v/>
+      </c>
+      <c r="R12" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S12" t="n">
+        <v/>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W12" t="n">
+        <v/>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L13" t="n">
+        <v/>
+      </c>
+      <c r="M13" t="n">
+        <v/>
+      </c>
+      <c r="N13" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O13" t="n">
+        <v>18800000</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v/>
+      </c>
+      <c r="R13" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="S13" t="n">
+        <v>546000</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>201</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>08-30-2024</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-176</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Duyên</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="L14" t="n">
+        <v/>
+      </c>
+      <c r="M14" t="n">
+        <v/>
+      </c>
+      <c r="N14" t="n">
+        <v>38000000</v>
+      </c>
+      <c r="O14" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v/>
+      </c>
+      <c r="R14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>450000</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>300000</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>16500000</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>143000000</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>24700000</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>224000000</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>16000000</v>
       </c>
-      <c r="N11" t="n">
-        <v>159000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>134500000</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1585000</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>980000</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="N15" t="n">
+        <v>240000000</v>
+      </c>
+      <c r="O15" t="n">
+        <v>192300000</v>
+      </c>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2711000</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1380000</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3770,7 +4262,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3795,73 +4287,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>910000</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3095238.095238095</v>
+        <v>11520000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11065000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1825000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1370000</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3871,37 +4363,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>4041000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2515000</v>
+        <v>-665000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-665000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3911,67 +4403,67 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3095238.095238095</v>
+        <v>5750000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>3800000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3800000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3981,7 +4473,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3991,27 +4483,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4021,57 +4513,57 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>3571428.571428571</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3095238.095238095</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3950000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4081,7 +4573,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4091,71 +4583,61 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>50000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>21912428.57142857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19910238.0952381</v>
+        <v>15221428.57142857</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>14745238.0952381</v>
+        <v>13621428.57142857</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11695238.0952381</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>46350714.28571429</v>
+        <v>50755285.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-6 Lâm Thị Mỹ Hằng 8-2024.xlsx
@@ -4277,7 +4277,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2">
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3571428.571428571</v>
+        <v>3690476.190476191</v>
       </c>
     </row>
     <row r="4">
@@ -4407,7 +4407,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3571428.571428571</v>
+        <v>3690476.190476191</v>
       </c>
     </row>
     <row r="15">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3571428.571428571</v>
+        <v>3690476.190476191</v>
       </c>
     </row>
     <row r="26">
@@ -4607,7 +4607,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21912428.57142857</v>
+        <v>22031476.19047619</v>
       </c>
     </row>
     <row r="35">
@@ -4617,7 +4617,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>15221428.57142857</v>
+        <v>15340476.19047619</v>
       </c>
     </row>
     <row r="36">
@@ -4627,7 +4627,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>13621428.57142857</v>
+        <v>13740476.19047619</v>
       </c>
     </row>
     <row r="37">
@@ -4637,7 +4637,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>50755285.71428572</v>
+        <v>51112428.57142857</v>
       </c>
     </row>
   </sheetData>
